--- a/doc/05_ファイル構成一覧表_チームEM.xlsx
+++ b/doc/05_ファイル構成一覧表_チームEM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5156C922-6032-4F55-A8A7-60A174E9520F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A644EA7B-DF3B-42AC-844B-D2C953F3147E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="177">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1984,6 +1984,44 @@
     <t>ユーザー一覧画面jsp(UsersListServlet,InquiryListServlet)</t>
     <rPh sb="4" eb="8">
       <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本、羽田</t>
+    <rPh sb="0" eb="2">
+      <t>マツモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三宅</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畠山</t>
+    <rPh sb="0" eb="2">
+      <t>ハタケヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春田</t>
+    <rPh sb="0" eb="2">
+      <t>ハルタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2412,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2462,7 +2500,9 @@
       <c r="F3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
@@ -2481,7 +2521,9 @@
       <c r="F4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
@@ -2500,7 +2542,9 @@
       <c r="F5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
@@ -2519,7 +2563,9 @@
       <c r="F6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
@@ -2537,7 +2583,9 @@
       <c r="F7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
@@ -2555,7 +2603,9 @@
       <c r="F8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
@@ -2574,7 +2624,9 @@
       <c r="F9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
@@ -2593,7 +2645,9 @@
       <c r="F10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
@@ -2612,7 +2666,9 @@
       <c r="F11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
@@ -2631,7 +2687,9 @@
       <c r="F12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -2650,7 +2708,9 @@
       <c r="F13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
@@ -2669,7 +2729,9 @@
       <c r="F14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
@@ -2688,7 +2750,9 @@
       <c r="F15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -2707,7 +2771,9 @@
       <c r="F16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
@@ -2726,7 +2792,9 @@
       <c r="F17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
@@ -2745,7 +2813,9 @@
       <c r="F18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -2764,7 +2834,9 @@
       <c r="F19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
@@ -2783,7 +2855,9 @@
       <c r="F20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -2802,7 +2876,9 @@
       <c r="F21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -2820,7 +2896,9 @@
       <c r="F22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -2838,7 +2916,9 @@
       <c r="F23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -2856,7 +2936,9 @@
       <c r="F24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -2875,7 +2957,9 @@
       <c r="F25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -2894,7 +2978,9 @@
       <c r="F26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
@@ -2913,7 +2999,9 @@
       <c r="F27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
@@ -2932,7 +3020,9 @@
       <c r="F28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -2951,7 +3041,9 @@
       <c r="F29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
@@ -2970,7 +3062,9 @@
       <c r="F30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
@@ -2989,7 +3083,9 @@
       <c r="F31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -3008,7 +3104,9 @@
       <c r="F32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
@@ -3027,7 +3125,9 @@
       <c r="F33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
@@ -3046,7 +3146,9 @@
       <c r="F34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -3065,7 +3167,9 @@
       <c r="F35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -3084,7 +3188,9 @@
       <c r="F36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
@@ -3103,7 +3209,9 @@
       <c r="F37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -3122,7 +3230,9 @@
       <c r="F38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -3141,7 +3251,9 @@
       <c r="F39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
@@ -3160,7 +3272,9 @@
       <c r="F40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
@@ -3179,7 +3293,9 @@
       <c r="F41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="42" spans="2:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
@@ -3198,7 +3314,9 @@
       <c r="F42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
@@ -3217,7 +3335,9 @@
       <c r="F43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
@@ -3236,7 +3356,9 @@
       <c r="F44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
@@ -3255,7 +3377,9 @@
       <c r="F45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
@@ -3274,7 +3398,9 @@
       <c r="F46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
@@ -3293,7 +3419,9 @@
       <c r="F47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
@@ -3312,7 +3440,9 @@
       <c r="F48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
@@ -3331,7 +3461,9 @@
       <c r="F49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
@@ -3350,7 +3482,9 @@
       <c r="F50" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
@@ -3369,7 +3503,9 @@
       <c r="F51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
@@ -3388,7 +3524,9 @@
       <c r="F52" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
@@ -3407,7 +3545,9 @@
       <c r="F53" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
@@ -3426,7 +3566,9 @@
       <c r="F54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
@@ -3445,7 +3587,9 @@
       <c r="F55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
@@ -3464,7 +3608,9 @@
       <c r="F56" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
@@ -3483,7 +3629,9 @@
       <c r="F57" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
@@ -3502,7 +3650,9 @@
       <c r="F58" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1">
@@ -3521,7 +3671,9 @@
       <c r="F59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1">
@@ -3540,7 +3692,9 @@
       <c r="F60" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1">
@@ -3559,7 +3713,9 @@
       <c r="F61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1">
@@ -3578,7 +3734,9 @@
       <c r="F62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1">
@@ -3597,7 +3755,9 @@
       <c r="F63" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1">
@@ -3616,7 +3776,9 @@
       <c r="F64" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
@@ -3635,7 +3797,9 @@
       <c r="F65" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
@@ -3654,7 +3818,9 @@
       <c r="F66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
@@ -3673,7 +3839,9 @@
       <c r="F67" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
@@ -3692,7 +3860,9 @@
       <c r="F68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
@@ -3711,7 +3881,9 @@
       <c r="F69" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
@@ -3730,7 +3902,9 @@
       <c r="F70" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
@@ -3749,7 +3923,9 @@
       <c r="F71" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
@@ -3768,7 +3944,9 @@
       <c r="F72" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
@@ -3787,7 +3965,9 @@
       <c r="F73" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
@@ -3806,7 +3986,9 @@
       <c r="F74" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
@@ -3825,7 +4007,9 @@
       <c r="F75" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
@@ -3844,7 +4028,9 @@
       <c r="F76" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
@@ -3863,7 +4049,9 @@
       <c r="F77" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
@@ -3882,7 +4070,9 @@
       <c r="F78" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
@@ -3901,7 +4091,9 @@
       <c r="F79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
@@ -3920,7 +4112,9 @@
       <c r="F80" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
@@ -4135,21 +4329,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4320,32 +4499,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4362,4 +4531,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チームEM.xlsx
+++ b/doc/05_ファイル構成一覧表_チームEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A644EA7B-DF3B-42AC-844B-D2C953F3147E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448F7056-0EA1-4037-81C4-BAA64C34E03A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2450,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4329,6 +4329,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4499,22 +4514,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4531,29 +4556,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>